--- a/data/GreatLink/GreatLink US Income and Growth Fund Dis_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund Dis_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid564874"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid298679"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
